--- a/exampleControlSheets/sensitivityAnalysis.xlsx
+++ b/exampleControlSheets/sensitivityAnalysis.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dylan\Documents\School\Masters\DylanLeveille\WebToolCSAT\exampleControlSheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB678D35-F6A1-4046-A0BD-E0B4328D6939}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D32AFF13-D95D-4227-9A50-E02BD44AECEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-90" yWindow="-90" windowWidth="17460" windowHeight="10260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -471,14 +471,15 @@
   <dimension ref="A1:J22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3:I22"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <cols>
     <col min="1" max="3" width="8.7265625" style="1"/>
     <col min="4" max="4" width="21.1796875" style="2" customWidth="1"/>
-    <col min="5" max="16384" width="8.7265625" style="1"/>
+    <col min="5" max="5" width="10.1796875" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="8.7265625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.75">

--- a/exampleControlSheets/sensitivityAnalysis.xlsx
+++ b/exampleControlSheets/sensitivityAnalysis.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dylan\Documents\School\Masters\DylanLeveille\WebToolCSAT\exampleControlSheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D32AFF13-D95D-4227-9A50-E02BD44AECEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F4118B9-2E3A-4A14-A2B2-D788D472D875}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-90" yWindow="-90" windowWidth="17460" windowHeight="10260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,6 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
